--- a/data/excel/freight_income_calc.xlsx
+++ b/data/excel/freight_income_calc.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF54C50-E4A2-CA4F-BE22-3613FA3AE40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DCCD2B-D01E-BC4E-BD57-E6CAF2895970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="460" windowWidth="26600" windowHeight="16020" xr2:uid="{810948E2-E6A0-E34C-826E-B4F2FFD14D32}"/>
+    <workbookView xWindow="11020" yWindow="1100" windowWidth="28800" windowHeight="15860" xr2:uid="{810948E2-E6A0-E34C-826E-B4F2FFD14D32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明用" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>神戸</t>
     <rPh sb="0" eb="2">
@@ -213,13 +215,215 @@
   </si>
   <si>
     <t>https://www.nmri.go.jp/main/publications/paper/pdf/22/05/03/PNM22050302-02.pdf</t>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積み下ろし率</t>
+    <rPh sb="0" eb="1">
+      <t>ツミオロセィ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="1">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Suez</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Voyage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Homeward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Round trip total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離割合×積み下ろし率</t>
+    <rPh sb="0" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツミオロセィ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停泊時間(h)</t>
+    <rPh sb="0" eb="2">
+      <t>テイハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行き（神戸ーロッテルダム）</t>
+    <rPh sb="0" eb="1">
+      <t>イキノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kobe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nagoya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tokyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shimizu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Souyhampton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotterdom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hamburg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジア域内での荷下ろしは一つ前の港からの荷物</t>
+    <rPh sb="3" eb="5">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニオロセィ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒトツノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミナト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ニモツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欧州域内での荷下ろしは一つ前の港からの荷物</t>
+    <rPh sb="0" eb="2">
+      <t>オウシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニオロセィ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒトツノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミナト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ニモツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欧州 での荷下ろしはSingaporeからの荷物</t>
+    <rPh sb="0" eb="2">
+      <t>オウシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニオロセィ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ニモツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行き（ロッテルダム→神戸）</t>
+    <rPh sb="0" eb="1">
+      <t>イキノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジアでの荷下ろしはロッテルダムからの荷物</t>
+    <rPh sb="5" eb="7">
+      <t>ニオロセィ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ニモツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運賃は距離に比例する</t>
+    <rPh sb="0" eb="2">
+      <t>ウンチn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +448,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -261,30 +481,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -597,11 +1182,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCD9953-4356-A14B-B505-BEB75FE39168}">
+  <dimension ref="B1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="21" thickBot="1"/>
+    <row r="2" spans="2:12" ht="43" thickBot="1">
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="2:12" ht="21">
+      <c r="B3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G3" s="14">
+        <v>750</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="17"/>
+      <c r="L3" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="35"/>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="18">
+        <v>186</v>
+      </c>
+      <c r="E4" s="27">
+        <f>D4/($D$12)</f>
+        <v>1.5956077893111435E-2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G4" s="16">
+        <v>806</v>
+      </c>
+      <c r="H4" s="18">
+        <v>481</v>
+      </c>
+      <c r="I4" s="27">
+        <f>H4/6100</f>
+        <v>7.8852459016393442E-2</v>
+      </c>
+      <c r="J4" s="31">
+        <f>E4*I4</f>
+        <v>1.2581759781289507E-3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="35"/>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="18">
+        <v>154</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" ref="E5:E11" si="0">D5/($D$12)</f>
+        <v>1.3210946212576135E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>43.9</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1579</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1658</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" ref="I5:I11" si="1">H5/6100</f>
+        <v>0.27180327868852461</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" ref="J5:J9" si="2">E5*I5</f>
+        <v>3.5907784951559399E-3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="35"/>
+      <c r="C6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="18">
+        <v>98</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>8.4069657716393589E-3</v>
+      </c>
+      <c r="F6" s="18">
+        <v>15.5</v>
+      </c>
+      <c r="G6" s="16">
+        <v>893</v>
+      </c>
+      <c r="H6" s="18">
+        <v>596</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="1"/>
+        <v>9.7704918032786886E-2</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" si="2"/>
+        <v>8.2140190162246856E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="35"/>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2852</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24465986102770867</v>
+      </c>
+      <c r="F7" s="18">
+        <v>22.1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1873</v>
+      </c>
+      <c r="H7" s="18">
+        <v>630</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.10327868852459017</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="2"/>
+        <v>2.5268149581550242E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="35"/>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4956</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.42515226902290471</v>
+      </c>
+      <c r="F8" s="18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="35"/>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="18">
+        <v>89</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>7.6348974864888048E-3</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="35"/>
+      <c r="C10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3090</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26507677790168999</v>
+      </c>
+      <c r="F10" s="22">
+        <v>28.3</v>
+      </c>
+      <c r="G10" s="16">
+        <v>788</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1627</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="1"/>
+        <v>0.26672131147540984</v>
+      </c>
+      <c r="J10" s="31">
+        <f>(E8+E9+E10)*I10</f>
+        <v>0.18613518648472668</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="21" thickBot="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="23">
+        <v>232</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>1.9902204683880931E-2</v>
+      </c>
+      <c r="F11" s="24">
+        <v>21.3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>262</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1858</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="1"/>
+        <v>0.30459016393442623</v>
+      </c>
+      <c r="J11" s="32">
+        <f>(E8+E9+E10+E11)*I11</f>
+        <v>0.21862450901941702</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="21" thickBot="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11">
+        <f>SUM(D4:D11)</f>
+        <v>11657</v>
+      </c>
+      <c r="E12" s="25">
+        <f>SUM(E4:E11)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <f>SUM(F3:F11)</f>
+        <v>200.30000000000004</v>
+      </c>
+      <c r="G12" s="25">
+        <f>SUM(G3:G11)</f>
+        <v>6951</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H3:H11)</f>
+        <v>6850</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="39">
+        <f>SUM(J4:J11)</f>
+        <v>0.43569820146060134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="21">
+      <c r="B13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="17"/>
+      <c r="L13" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="35"/>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="18">
+        <v>232</v>
+      </c>
+      <c r="E14" s="27">
+        <f>D14/$D$21</f>
+        <v>2.0117932708983696E-2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>29.7</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1340</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1343</v>
+      </c>
+      <c r="I14" s="27">
+        <f>H14/6100</f>
+        <v>0.2201639344262295</v>
+      </c>
+      <c r="J14" s="31">
+        <f>E14*I14</f>
+        <v>4.4292432177319837E-3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="35"/>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="18">
+        <v>212</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" ref="E15:E20" si="3">D15/$D$21</f>
+        <v>1.8383628165105793E-2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>20</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1762</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="31"/>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="35"/>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="18">
+        <v>229</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="3"/>
+        <v>1.9857787027402013E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>18.8</v>
+      </c>
+      <c r="G16" s="16">
+        <v>664</v>
+      </c>
+      <c r="H16" s="18">
+        <v>267</v>
+      </c>
+      <c r="I16" s="27">
+        <f>H16/6100</f>
+        <v>4.3770491803278688E-2</v>
+      </c>
+      <c r="J16" s="31">
+        <f>E16*I16</f>
+        <v>8.6918510431415364E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="35"/>
+      <c r="C17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3123</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="3"/>
+        <v>0.27081165452653488</v>
+      </c>
+      <c r="F17" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="35"/>
+      <c r="C18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="18">
+        <v>89</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="3"/>
+        <v>7.717655220256677E-3</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="35"/>
+      <c r="C19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18">
+        <v>4972</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="3"/>
+        <v>0.43114810960804717</v>
+      </c>
+      <c r="F19" s="18">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16">
+        <v>416</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1305</v>
+      </c>
+      <c r="I19" s="27">
+        <f>H19/6100</f>
+        <v>0.2139344262295082</v>
+      </c>
+      <c r="J19" s="41">
+        <f>(E16+E17+E18+E19)*I19</f>
+        <v>0.15607269579161054</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="21" thickBot="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2675</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="3"/>
+        <v>0.23196323274366978</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="19">
+        <v>923</v>
+      </c>
+      <c r="I20" s="29">
+        <f>H20/6100</f>
+        <v>0.15131147540983605</v>
+      </c>
+      <c r="J20" s="33">
+        <f>(E16+E17+E18+E19+E20)*I20</f>
+        <v>0.14548574742839598</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="21" thickBot="1">
+      <c r="B21" s="36"/>
+      <c r="C21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="11">
+        <f>SUM(D13:D20)</f>
+        <v>11532</v>
+      </c>
+      <c r="E21" s="25">
+        <f>SUM(E14:E20)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <f>SUM(F13:F20)</f>
+        <v>95.3</v>
+      </c>
+      <c r="G21" s="25">
+        <f>SUM(G13:G20)</f>
+        <v>4182</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(H13:H20)</f>
+        <v>3838</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="39">
+        <f>SUM(J13:J20)</f>
+        <v>0.30685687154205266</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="54" customHeight="1" thickBot="1">
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="5">
+        <v>23179</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="5">
+        <f>F12+F21</f>
+        <v>295.60000000000002</v>
+      </c>
+      <c r="G22" s="26">
+        <f>G12+G21</f>
+        <v>11133</v>
+      </c>
+      <c r="H22" s="20">
+        <f>H12+H21</f>
+        <v>10688</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E21" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A437975-ADA0-B148-B5C5-52D21DD0200A}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -637,7 +1830,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -654,7 +1847,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2"/>
+      <c r="A3" s="37"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -687,7 +1880,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2"/>
+      <c r="A4" s="37"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -712,12 +1905,12 @@
         <v>0.27180327868852461</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J9" si="2">D4*H4</f>
+        <f t="shared" ref="J4:J8" si="2">D4*H4</f>
         <v>3.6636940847293467E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
+      <c r="A5" s="37"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +1940,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
+      <c r="A6" s="37"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -777,7 +1970,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
+      <c r="A7" s="37"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -801,7 +1994,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
+      <c r="A8" s="37"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -822,7 +2015,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
+      <c r="A9" s="37"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -846,7 +2039,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2"/>
+      <c r="A10" s="37"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1061,13 +2254,17 @@
         <f>SUM(G13:G20)</f>
         <v>5696</v>
       </c>
+      <c r="I21">
+        <f>AVERAGE(H13+H14+H16+H19+H20)</f>
+        <v>0.93377049180327865</v>
+      </c>
       <c r="J21">
         <f>SUM(J13:J20)</f>
         <v>0.31553042292929656</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1081,4 +2278,482 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F553099-B772-DC45-8362-770E37747865}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="42">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="37"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>186</v>
+      </c>
+      <c r="D3">
+        <f>C3/($C$10+$C$13)</f>
+        <v>1.5956077893111435E-2</v>
+      </c>
+      <c r="E3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F3">
+        <v>806</v>
+      </c>
+      <c r="G3">
+        <v>481</v>
+      </c>
+      <c r="H3">
+        <f>G3/$H$10</f>
+        <v>7.8852459016393442E-2</v>
+      </c>
+      <c r="J3">
+        <f>D3*H3</f>
+        <v>1.2581759781289507E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="37"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>154</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">C4/($C$10+$C$13)</f>
+        <v>1.3210946212576135E-2</v>
+      </c>
+      <c r="E4">
+        <v>43.9</v>
+      </c>
+      <c r="F4">
+        <v>1579</v>
+      </c>
+      <c r="G4">
+        <v>1658</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H9" si="1">G4/$H$10</f>
+        <v>0.27180327868852461</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="2">D4*H4</f>
+        <v>3.5907784951559399E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="37"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8.4069657716393589E-3</v>
+      </c>
+      <c r="E5">
+        <v>15.5</v>
+      </c>
+      <c r="F5">
+        <v>893</v>
+      </c>
+      <c r="G5">
+        <v>596</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>9.7704918032786886E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>8.2140190162246856E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="37"/>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2852</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.24465986102770867</v>
+      </c>
+      <c r="E6">
+        <v>22.1</v>
+      </c>
+      <c r="F6">
+        <v>1873</v>
+      </c>
+      <c r="G6">
+        <v>630</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.10327868852459017</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2.5268149581550242E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="37"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4956</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.42515226902290471</v>
+      </c>
+      <c r="E7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="37"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7.6348974864888048E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="37"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3090</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.26507677790168999</v>
+      </c>
+      <c r="G9">
+        <v>1627</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.26672131147540984</v>
+      </c>
+      <c r="J9">
+        <f>(D7+D8+D9)*H9</f>
+        <v>0.18613518648472668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="37"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>11425</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D3:D9)</f>
+        <v>0.98009779531611918</v>
+      </c>
+      <c r="E10">
+        <v>150.6</v>
+      </c>
+      <c r="F10">
+        <v>5899</v>
+      </c>
+      <c r="G10">
+        <v>4992</v>
+      </c>
+      <c r="H10">
+        <v>6100</v>
+      </c>
+      <c r="I10">
+        <f>SUM(H3:H9)</f>
+        <v>0.818360655737705</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J3:J9)</f>
+        <v>0.2170736924411843</v>
+      </c>
+      <c r="K10">
+        <f>SUM(J3,J4,J5,J6,J9,J13)</f>
+        <v>0.43582129884901777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+      <c r="D13">
+        <f>C13/$C$10</f>
+        <v>2.0306345733041575E-2</v>
+      </c>
+      <c r="G13">
+        <v>1858</v>
+      </c>
+      <c r="H13">
+        <f>G13/$H$10</f>
+        <v>0.30459016393442623</v>
+      </c>
+      <c r="J13">
+        <f>(D7+D8+D9+D13)*H13</f>
+        <v>0.2187476064078335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>212</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D20" si="3">C14/$C$10</f>
+        <v>1.8555798687089717E-2</v>
+      </c>
+      <c r="G14">
+        <v>1343</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H20" si="4">G14/$H$10</f>
+        <v>0.2201639344262295</v>
+      </c>
+      <c r="J14">
+        <f>D14*H14</f>
+        <v>4.0853176453707358E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>224</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1.9606126914660831E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>229</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>2.0043763676148796E-2</v>
+      </c>
+      <c r="G16">
+        <v>267</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>4.3770491803278688E-2</v>
+      </c>
+      <c r="J16">
+        <f>D16*H16</f>
+        <v>8.7732539369372593E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>3123</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>0.27334792122538293</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>7.7899343544857768E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>4972</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>0.43518599562363236</v>
+      </c>
+      <c r="G19">
+        <v>1305</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0.2139344262295082</v>
+      </c>
+      <c r="J19">
+        <f>(D16+D17+D18+D19)*H19</f>
+        <v>0.15753438318326934</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2675</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>0.23413566739606126</v>
+      </c>
+      <c r="G20">
+        <v>923</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0.15131147540983605</v>
+      </c>
+      <c r="J20">
+        <f>(D16+D17+D18+D19+D20)*H20</f>
+        <v>0.14684828353122645</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C13:C20)</f>
+        <v>11756</v>
+      </c>
+      <c r="G21">
+        <f>SUM(G13:G20)</f>
+        <v>5696</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(H13+H14+H16+H19+H20)</f>
+        <v>0.93377049180327865</v>
+      </c>
+      <c r="J21">
+        <f>SUM(J13:J20)</f>
+        <v>0.52809291616139376</v>
+      </c>
+      <c r="K21">
+        <f>SUM(J14:J20)</f>
+        <v>0.30934530975356023</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>